--- a/src/main/java/com/amazon/testdata/TestData.xlsx
+++ b/src/main/java/com/amazon/testdata/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7E1F6EE8-8601-4922-AE90-8F9C03855507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7F0A8C4E-1036-42E5-A1BB-E9EC46F7A699}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Email_Id</t>
   </si>
   <si>
-    <t>Redmi 9 mobile</t>
-  </si>
-  <si>
     <t>AccountHolderName</t>
   </si>
   <si>
@@ -51,6 +48,9 @@
   </si>
   <si>
     <t>9876432728761250</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy M31 (Ocean Blue, 6GB RAM, 128GB Storage)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,10 +436,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -450,13 +450,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
